--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220413.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-04-13</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220413.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="269">
   <si>
     <t>사이트</t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>BRAVE</t>
+  </si>
+  <si>
+    <t>D-Nation</t>
   </si>
 </sst>
 </file>
@@ -3696,6 +3699,12 @@
       <c r="F97" t="s">
         <v>226</v>
       </c>
+      <c r="G97" t="s">
+        <v>268</v>
+      </c>
+      <c r="H97" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220413.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220413.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="268">
   <si>
     <t>사이트</t>
   </si>
@@ -739,7 +739,7 @@
     <t>빅플래닛메이드</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -782,9 +782,6 @@
   </si>
   <si>
     <t>인터파크 엔터테인먼트</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>iMe KOREA</t>
@@ -1259,7 +1256,7 @@
         <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1337,7 +1334,7 @@
         <v>232</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1363,7 +1360,7 @@
         <v>233</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1389,7 +1386,7 @@
         <v>234</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1441,7 +1438,7 @@
         <v>232</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1467,7 +1464,7 @@
         <v>235</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1519,7 +1516,7 @@
         <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1545,7 +1542,7 @@
         <v>234</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1571,7 +1568,7 @@
         <v>237</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1597,7 +1594,7 @@
         <v>238</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1623,7 +1620,7 @@
         <v>239</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1649,7 +1646,7 @@
         <v>240</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1701,7 +1698,7 @@
         <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1727,7 +1724,7 @@
         <v>234</v>
       </c>
       <c r="H21" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1753,7 +1750,7 @@
         <v>242</v>
       </c>
       <c r="H22" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1779,7 +1776,7 @@
         <v>234</v>
       </c>
       <c r="H23" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1805,7 +1802,7 @@
         <v>243</v>
       </c>
       <c r="H24" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1831,7 +1828,7 @@
         <v>244</v>
       </c>
       <c r="H25" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1857,7 +1854,7 @@
         <v>234</v>
       </c>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1909,7 +1906,7 @@
         <v>234</v>
       </c>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1935,7 +1932,7 @@
         <v>229</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1961,7 +1958,7 @@
         <v>234</v>
       </c>
       <c r="H30" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2013,7 +2010,7 @@
         <v>246</v>
       </c>
       <c r="H32" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2039,7 +2036,7 @@
         <v>234</v>
       </c>
       <c r="H33" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2065,7 +2062,7 @@
         <v>244</v>
       </c>
       <c r="H34" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2091,7 +2088,7 @@
         <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2117,7 +2114,7 @@
         <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2169,7 +2166,7 @@
         <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2247,7 +2244,7 @@
         <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2273,7 +2270,7 @@
         <v>250</v>
       </c>
       <c r="H42" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2299,7 +2296,7 @@
         <v>251</v>
       </c>
       <c r="H43" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2325,7 +2322,7 @@
         <v>243</v>
       </c>
       <c r="H44" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2351,7 +2348,7 @@
         <v>241</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2377,7 +2374,7 @@
         <v>252</v>
       </c>
       <c r="H46" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2429,7 +2426,7 @@
         <v>240</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2455,7 +2452,7 @@
         <v>254</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2481,7 +2478,7 @@
         <v>255</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2533,7 +2530,7 @@
         <v>244</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2559,7 +2556,7 @@
         <v>234</v>
       </c>
       <c r="H53" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2582,10 +2579,10 @@
         <v>197</v>
       </c>
       <c r="G54" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H54" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2663,7 +2660,7 @@
         <v>235</v>
       </c>
       <c r="H57" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2686,10 +2683,10 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2819,7 +2816,7 @@
         <v>241</v>
       </c>
       <c r="H63" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2842,10 +2839,10 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2871,7 +2868,7 @@
         <v>252</v>
       </c>
       <c r="H65" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2897,7 +2894,7 @@
         <v>244</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2923,7 +2920,7 @@
         <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2972,10 +2969,10 @@
         <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H69" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2998,10 +2995,10 @@
         <v>206</v>
       </c>
       <c r="G70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3027,7 +3024,7 @@
         <v>244</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3053,7 +3050,7 @@
         <v>247</v>
       </c>
       <c r="H72" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3079,7 +3076,7 @@
         <v>243</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3105,7 +3102,7 @@
         <v>241</v>
       </c>
       <c r="H74" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3131,7 +3128,7 @@
         <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3154,10 +3151,10 @@
         <v>209</v>
       </c>
       <c r="G76" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="H76" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3183,7 +3180,7 @@
         <v>248</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3206,10 +3203,10 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3235,7 +3232,7 @@
         <v>232</v>
       </c>
       <c r="H79" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3258,10 +3255,10 @@
         <v>212</v>
       </c>
       <c r="G80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H80" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3284,10 +3281,10 @@
         <v>213</v>
       </c>
       <c r="G81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3313,7 +3310,7 @@
         <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3336,10 +3333,10 @@
         <v>215</v>
       </c>
       <c r="G83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H83" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3365,7 +3362,7 @@
         <v>244</v>
       </c>
       <c r="H84" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3388,10 +3385,10 @@
         <v>216</v>
       </c>
       <c r="G85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H85" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3495,7 +3492,7 @@
         <v>241</v>
       </c>
       <c r="H89" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3518,10 +3515,10 @@
         <v>220</v>
       </c>
       <c r="G90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H90" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3573,7 +3570,7 @@
         <v>241</v>
       </c>
       <c r="H92" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3651,7 +3648,7 @@
         <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3674,10 +3671,10 @@
         <v>225</v>
       </c>
       <c r="G96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H96" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3700,10 +3697,10 @@
         <v>226</v>
       </c>
       <c r="G97" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H97" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3729,7 +3726,7 @@
         <v>241</v>
       </c>
       <c r="H98" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3807,7 +3804,7 @@
         <v>243</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
